--- a/5.메타통계DB/1.메타통계테이블정의서.xlsx
+++ b/5.메타통계DB/1.메타통계테이블정의서.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="12050"/>
   </bookViews>
   <sheets>
     <sheet name="통계및메타테이블" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="85">
   <si>
     <t>변수정보(카탈로그정보)</t>
   </si>
@@ -333,12 +333,22 @@
     <t>암_테이블_컬럼_메타</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>CNCR_TBL_SMRY_STATS</t>
+  </si>
+  <si>
+    <t>암_테이블_요약_통계</t>
+  </si>
+  <si>
+    <t>기준년도 요약통계</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -452,8 +462,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -475,6 +499,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,7 +609,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -602,8 +632,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -639,6 +690,9 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -654,21 +708,207 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="15">
+    <cellStyle name="좋음 2" xfId="11"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2 3" xfId="1"/>
     <cellStyle name="표준 3 4" xfId="5"/>
+    <cellStyle name="표준 3 4 2" xfId="12"/>
     <cellStyle name="표준 5 2" xfId="2"/>
+    <cellStyle name="표준 5 2 2" xfId="8"/>
     <cellStyle name="표준 7" xfId="4"/>
     <cellStyle name="표준 7 2" xfId="3"/>
     <cellStyle name="표준 7 2 2" xfId="6"/>
+    <cellStyle name="표준 7 2 2 2" xfId="13"/>
+    <cellStyle name="표준 7 2 3" xfId="9"/>
+    <cellStyle name="표준 7 3" xfId="10"/>
     <cellStyle name="표준 7 3 2 2" xfId="7"/>
+    <cellStyle name="표준 7 3 2 2 2" xfId="14"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="28">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6182D6"/>
+          <bgColor rgb="FF6182D6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF94A5DF"/>
+          <bgColor rgb="FF94A5DF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color rgb="FF6182D6"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF6182D6"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border>
+        <top style="thin">
+          <color rgb="FF6182D6"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border>
+        <bottom style="medium">
+          <color rgb="FF6182D6"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <border>
+        <left/>
+        <right/>
+        <top style="medium">
+          <color rgb="FF6182D6"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF6182D6"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFAEBFEA"/>
+          <bgColor rgb="FFAEBFEA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFAEBFEA"/>
+          <bgColor rgb="FFAEBFEA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6182D6"/>
+          <bgColor rgb="FF6182D6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6182D6"/>
+          <bgColor rgb="FF6182D6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6182D6"/>
+          <bgColor rgb="FF6182D6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thick">
+          <color rgb="FFFFFFFF"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6182D6"/>
+          <bgColor rgb="FF6182D6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thick">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD7DFF4"/>
+          <bgColor rgb="FFD7DFF4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FFFFFFFF"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FFFFFFFF"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -753,8 +993,41 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
+      <tableStyleElement type="wholeTable" dxfId="13"/>
+      <tableStyleElement type="headerRow" dxfId="12"/>
+      <tableStyleElement type="totalRow" dxfId="11"/>
+      <tableStyleElement type="firstColumn" dxfId="10"/>
+      <tableStyleElement type="lastColumn" dxfId="9"/>
+      <tableStyleElement type="firstRowStripe" dxfId="8"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="7"/>
+    </tableStyle>
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -772,14 +1045,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>421615</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>84850</xdr:rowOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>91200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -802,7 +1075,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="2114550"/>
+          <a:off x="0" y="3041650"/>
           <a:ext cx="5266665" cy="8428750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1078,11 +1351,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.33203125" defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
@@ -1182,7 +1455,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="13" t="s">
         <v>67</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -1190,68 +1463,89 @@
       </c>
       <c r="C9" s="10" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:C9"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="B2:C2 B6:C7">
-    <cfRule type="expression" dxfId="11" priority="650">
+    <cfRule type="expression" dxfId="27" priority="652">
       <formula>ISEVEN(#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:C8">
-    <cfRule type="expression" dxfId="10" priority="349">
+    <cfRule type="expression" dxfId="26" priority="351">
       <formula>ISEVEN(#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3">
-    <cfRule type="expression" dxfId="9" priority="308">
+    <cfRule type="expression" dxfId="25" priority="310">
       <formula>ISEVEN(#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2 A6:A7">
-    <cfRule type="expression" dxfId="8" priority="232">
+    <cfRule type="expression" dxfId="24" priority="234">
       <formula>ISEVEN(#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="expression" dxfId="7" priority="225">
+    <cfRule type="expression" dxfId="23" priority="227">
       <formula>ISEVEN(#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="expression" dxfId="6" priority="222">
+    <cfRule type="expression" dxfId="22" priority="224">
       <formula>ISEVEN(#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:C4">
-    <cfRule type="expression" dxfId="5" priority="81">
+    <cfRule type="expression" dxfId="21" priority="83">
       <formula>ISEVEN(#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5">
-    <cfRule type="expression" dxfId="4" priority="52">
+    <cfRule type="expression" dxfId="20" priority="54">
       <formula>ISEVEN(#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="expression" dxfId="3" priority="44">
+    <cfRule type="expression" dxfId="19" priority="46">
       <formula>ISEVEN(#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="expression" dxfId="2" priority="43">
+    <cfRule type="expression" dxfId="18" priority="45">
       <formula>ISEVEN(#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="expression" dxfId="1" priority="7">
+    <cfRule type="expression" dxfId="17" priority="9">
       <formula>ISEVEN(#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:C9">
-    <cfRule type="expression" dxfId="0" priority="6">
+    <cfRule type="expression" dxfId="16" priority="8">
+      <formula>ISEVEN(#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10:C10">
+    <cfRule type="expression" dxfId="15" priority="2">
+      <formula>ISEVEN(#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10">
+    <cfRule type="expression" dxfId="14" priority="1">
       <formula>ISEVEN(#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1265,7 +1559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -1306,7 +1600,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1318,12 +1612,12 @@
       <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" s="14"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
@@ -1333,10 +1627,10 @@
       <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="14"/>
+      <c r="E6" s="15"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" s="14"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
@@ -1346,10 +1640,10 @@
       <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="14"/>
+      <c r="E7" s="15"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" s="14"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
@@ -1359,10 +1653,10 @@
       <c r="D8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="14"/>
+      <c r="E8" s="15"/>
     </row>
     <row r="9" spans="1:5" ht="51" x14ac:dyDescent="0.45">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="16" t="s">
         <v>62</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -1377,7 +1671,7 @@
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" ht="51" x14ac:dyDescent="0.45">
-      <c r="A10" s="16"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="5" t="s">
         <v>19</v>
       </c>
@@ -1390,7 +1684,7 @@
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" ht="51" x14ac:dyDescent="0.45">
-      <c r="A11" s="16"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="5" t="s">
         <v>20</v>
       </c>
@@ -1403,7 +1697,7 @@
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" ht="68" x14ac:dyDescent="0.45">
-      <c r="A12" s="16"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="5" t="s">
         <v>23</v>
       </c>
@@ -1418,7 +1712,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="68" x14ac:dyDescent="0.45">
-      <c r="A13" s="16"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="5" t="s">
         <v>25</v>
       </c>
@@ -1433,7 +1727,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="68" x14ac:dyDescent="0.45">
-      <c r="A14" s="16"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="5" t="s">
         <v>27</v>
       </c>
@@ -1448,7 +1742,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="68" x14ac:dyDescent="0.45">
-      <c r="A15" s="16"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="5" t="s">
         <v>29</v>
       </c>
@@ -1463,7 +1757,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="68" x14ac:dyDescent="0.45">
-      <c r="A16" s="16"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="5" t="s">
         <v>36</v>
       </c>
@@ -1478,7 +1772,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="102" x14ac:dyDescent="0.45">
-      <c r="A17" s="17"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="5" t="s">
         <v>32</v>
       </c>
@@ -1493,7 +1787,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="68" x14ac:dyDescent="0.45">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="16" t="s">
         <v>63</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -1510,7 +1804,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="68" x14ac:dyDescent="0.45">
-      <c r="A19" s="17"/>
+      <c r="A19" s="18"/>
       <c r="B19" s="5" t="s">
         <v>35</v>
       </c>
